--- a/artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e90e968d6f8cb6a5/Documentos/^N Faculdade/OPE/smart-owl/Artefatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Faculdade\Engenharia\hairtech\artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE8D25B-225C-4F68-A6BA-8A26254D18C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -128,9 +127,6 @@
     <t>x (8)</t>
   </si>
   <si>
-    <t>Realizar finalização solicitada pelo cliente</t>
-  </si>
-  <si>
     <t>x (9)</t>
   </si>
   <si>
@@ -150,13 +146,16 @@
   </si>
   <si>
     <t>x (12)</t>
+  </si>
+  <si>
+    <t>Realizar finalização do serviço</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,9 +413,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -436,6 +432,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -472,9 +471,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -512,7 +511,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -547,23 +546,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -599,26 +581,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -791,14 +756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
@@ -812,7 +777,7 @@
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="51" customHeight="1">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="28" t="s">
         <v>0</v>
       </c>
@@ -824,7 +789,7 @@
       <c r="I1" s="28"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="46.5" customHeight="1">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
@@ -854,7 +819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45.75" customHeight="1">
+    <row r="3" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -876,7 +841,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="44.25" customHeight="1">
+    <row r="4" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -898,11 +863,11 @@
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25" customHeight="1">
+    <row r="5" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="12">
@@ -920,9 +885,9 @@
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1">
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="20"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="12">
         <v>4</v>
       </c>
@@ -938,9 +903,9 @@
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
-      <c r="B7" s="20"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="12">
         <v>5</v>
       </c>
@@ -956,9 +921,9 @@
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
-      <c r="B8" s="20"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="12">
         <v>6</v>
       </c>
@@ -974,11 +939,11 @@
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="12">
@@ -996,9 +961,9 @@
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="12">
         <v>8</v>
       </c>
@@ -1014,9 +979,9 @@
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="12">
         <v>9</v>
       </c>
@@ -1032,17 +997,17 @@
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
@@ -1050,9 +1015,9 @@
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>12</v>
@@ -1061,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="4"/>
@@ -1072,18 +1037,18 @@
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="12">
         <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="4" t="s">
@@ -1094,17 +1059,17 @@
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="27"/>
-      <c r="B15" s="20"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="12">
         <v>13</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
@@ -1112,50 +1077,49 @@
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" s="11"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G19"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G20"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="3"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="3"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G27"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A8"/>
@@ -1164,6 +1128,7 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1171,24 +1136,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -413,6 +413,18 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -432,18 +444,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -778,22 +778,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
@@ -864,10 +864,10 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="12">
@@ -886,8 +886,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="12">
         <v>4</v>
       </c>
@@ -904,8 +904,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="12">
         <v>5</v>
       </c>
@@ -922,8 +922,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="12">
         <v>6</v>
       </c>
@@ -940,10 +940,10 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="12">
@@ -962,8 +962,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="12">
         <v>8</v>
       </c>
@@ -980,8 +980,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="12">
         <v>9</v>
       </c>
@@ -998,8 +998,8 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
@@ -1038,10 +1038,10 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="12">
@@ -1060,8 +1060,8 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="12">
         <v>13</v>
       </c>
@@ -1120,15 +1120,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -5,34 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Faculdade\Engenharia\hairtech\artefatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RenanAlmeida\Desktop\g06\g06\hairtech-main\artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t xml:space="preserve">Externo </t>
   </si>
@@ -49,21 +36,12 @@
     <t>Evento</t>
   </si>
   <si>
-    <t>Previsível*</t>
-  </si>
-  <si>
     <t xml:space="preserve">Não previsível </t>
   </si>
   <si>
-    <t>Relativo*</t>
-  </si>
-  <si>
     <t>Absoluto</t>
   </si>
   <si>
-    <t>Não Evento*</t>
-  </si>
-  <si>
     <t>Extemporâneo</t>
   </si>
   <si>
@@ -73,82 +51,106 @@
     <t>FB</t>
   </si>
   <si>
-    <t>Analisar solicitação de agendamento</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Atender o cliente para desmarcar o serviço agendado</t>
   </si>
   <si>
-    <t>Analisar solicitação de desagendamento</t>
-  </si>
-  <si>
     <t>Recepcionar o cliente</t>
   </si>
   <si>
-    <t>Recepcionar cliente</t>
-  </si>
-  <si>
-    <t>Preparar fechamento do serviço</t>
-  </si>
-  <si>
-    <t>x (3)</t>
-  </si>
-  <si>
-    <t>Informar valor total do serviço</t>
-  </si>
-  <si>
-    <t>x (4)</t>
-  </si>
-  <si>
-    <t>Pagar</t>
-  </si>
-  <si>
-    <t>x (5)</t>
-  </si>
-  <si>
     <t>Receber Cliente para Realizar serviço</t>
   </si>
   <si>
-    <t>Receber aviso de cliente esperando</t>
-  </si>
-  <si>
-    <t>Chamar cliente para realizar serviço</t>
-  </si>
-  <si>
-    <t>x (7)</t>
-  </si>
-  <si>
-    <t>Realizar serviço</t>
-  </si>
-  <si>
-    <t>x (8)</t>
-  </si>
-  <si>
-    <t>x (9)</t>
-  </si>
-  <si>
     <t>Vender Produtos</t>
   </si>
   <si>
-    <t>Vender produto</t>
-  </si>
-  <si>
     <t>Comprar produtos</t>
   </si>
   <si>
-    <t>Comprar produto</t>
-  </si>
-  <si>
-    <t>Pagar produto</t>
-  </si>
-  <si>
-    <t>x (12)</t>
-  </si>
-  <si>
-    <t>Realizar finalização do serviço</t>
+    <t>Cliente solicita agendamento</t>
+  </si>
+  <si>
+    <t>Cliente solicita desagendamento</t>
+  </si>
+  <si>
+    <t>Cliente avisa sua chegada</t>
+  </si>
+  <si>
+    <t>Funcionário chama cliente</t>
+  </si>
+  <si>
+    <t>Funcionário realiza serviço</t>
+  </si>
+  <si>
+    <t>Cliente solicita ajustes</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Recepção avisa funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionário avisa recepção do término </t>
+  </si>
+  <si>
+    <t>Cliente efetua o pagemento</t>
+  </si>
+  <si>
+    <t>Salão solicita produto</t>
+  </si>
+  <si>
+    <t>Salão efetua pagamento</t>
+  </si>
+  <si>
+    <t>Fornecedor provem o produto</t>
+  </si>
+  <si>
+    <t>Previsível</t>
+  </si>
+  <si>
+    <t>Relativo</t>
+  </si>
+  <si>
+    <t>Não Evento</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>X(1)</t>
+  </si>
+  <si>
+    <t>Cliente recebe o valor do serviço a ser realizado</t>
+  </si>
+  <si>
+    <t>X(5)</t>
+  </si>
+  <si>
+    <t>X(3)</t>
+  </si>
+  <si>
+    <t>X(6)</t>
+  </si>
+  <si>
+    <t>X(7)</t>
+  </si>
+  <si>
+    <t>Cliente solicita preço do produto</t>
+  </si>
+  <si>
+    <t>Cliente solicita compra do produto</t>
+  </si>
+  <si>
+    <t>Cliente efetua o pagemento final</t>
+  </si>
+  <si>
+    <t>X(11)</t>
+  </si>
+  <si>
+    <t>X(14)</t>
+  </si>
+  <si>
+    <t>X(15)</t>
   </si>
 </sst>
 </file>
@@ -249,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -350,11 +352,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,8 +441,60 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,32 +502,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,6 +548,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3133725" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{226FE2C1-606D-4C24-9086-DE4582F1F808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1677228" y="9525"/>
+          <a:ext cx="3133725" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -757,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,22 +922,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
@@ -801,40 +945,40 @@
         <v>4</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="I2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -843,10 +987,10 @@
     </row>
     <row r="4" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12">
         <v>2</v>
@@ -854,48 +998,48 @@
       <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="E4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>12</v>
+      <c r="A5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="12">
         <v>3</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="12">
         <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
@@ -904,16 +1048,20 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" s="12">
         <v>5</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
@@ -922,56 +1070,52 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="12">
         <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E8" s="14"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="43"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="12">
         <v>7</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="28"/>
       <c r="C10" s="12">
         <v>8</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
@@ -980,16 +1124,18 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="12">
         <v>9</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
@@ -998,16 +1144,16 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="29"/>
       <c r="C12" s="12">
         <v>10</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
@@ -1016,57 +1162,55 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>12</v>
+      <c r="A13" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>9</v>
       </c>
       <c r="C13" s="12">
         <v>11</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>12</v>
-      </c>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="12">
         <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="23"/>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="25" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="12">
         <v>13</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>37</v>
@@ -1078,83 +1222,124 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="11"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="3"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="3"/>
+      <c r="A16" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12">
+        <v>14</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="19">
+        <v>15</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="24">
+        <v>16</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G22"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="3"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G23"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="3"/>
+      <c r="F24" s="27"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="3"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="3"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="3"/>
       <c r="G27"/>
     </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="C28" s="3"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
+  <mergeCells count="12">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/artefatos/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/artefatos/17. Análise dos Eventos para cada Cenário.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan\OneDrive\Área de Trabalho\g06\g06\hairtech-main\artefatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Faculdade\Engenharia\hairtech\artefatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49F5C1A-C810-45B8-87EE-B17BB207C3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -139,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,30 +520,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -574,6 +549,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -602,77 +601,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3133725" cy="609013"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226FE2C1-606D-4C24-9086-DE4582F1F808}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1685925" y="9525"/>
-          <a:ext cx="3133725" cy="609013"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Nome de evento não é o nome do processo! Deve seguir um padrão: &lt;sujeito&gt;&lt;verbo no presente do indicativo&gt;</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -710,7 +642,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -745,23 +677,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -797,26 +712,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -989,11 +887,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,22 +909,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1062,16 +960,16 @@
       <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1084,209 +982,209 @@
       <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="41" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="10">
         <v>4</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="10">
         <v>5</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="9">
         <v>6</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="11">
         <v>7</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="12">
         <v>8</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="14">
         <v>9</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="15">
         <v>10</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="16">
         <v>11</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="16">
         <v>12</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="40"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16"/>
@@ -1340,6 +1238,5 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>